--- a/data_templates/BOM_Template.xlsx
+++ b/data_templates/BOM_Template.xlsx
@@ -14,10 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
-  <si>
-    <t>BOM ID</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="225">
   <si>
     <t>Equipment ID</t>
   </si>
@@ -25,28 +22,673 @@
     <t>Component ID</t>
   </si>
   <si>
-    <t>Description</t>
+    <t>Component Description</t>
+  </si>
+  <si>
+    <t>Type</t>
   </si>
   <si>
     <t>Quantity</t>
   </si>
   <si>
-    <t>UoM</t>
-  </si>
-  <si>
-    <t>BOM001</t>
-  </si>
-  <si>
     <t>EQ001</t>
   </si>
   <si>
-    <t>CMP001</t>
-  </si>
-  <si>
-    <t>Brake Pad</t>
-  </si>
-  <si>
-    <t>EA</t>
+    <t>EQ002</t>
+  </si>
+  <si>
+    <t>EQ003</t>
+  </si>
+  <si>
+    <t>EQ004</t>
+  </si>
+  <si>
+    <t>EQ005</t>
+  </si>
+  <si>
+    <t>EQ006</t>
+  </si>
+  <si>
+    <t>EQ007</t>
+  </si>
+  <si>
+    <t>EQ008</t>
+  </si>
+  <si>
+    <t>EQ009</t>
+  </si>
+  <si>
+    <t>EQ010</t>
+  </si>
+  <si>
+    <t>EQ011</t>
+  </si>
+  <si>
+    <t>EQ012</t>
+  </si>
+  <si>
+    <t>EQ013</t>
+  </si>
+  <si>
+    <t>EQ014</t>
+  </si>
+  <si>
+    <t>EQ015</t>
+  </si>
+  <si>
+    <t>EQ016</t>
+  </si>
+  <si>
+    <t>EQ017</t>
+  </si>
+  <si>
+    <t>EQ018</t>
+  </si>
+  <si>
+    <t>EQ019</t>
+  </si>
+  <si>
+    <t>EQ020</t>
+  </si>
+  <si>
+    <t>EQ021</t>
+  </si>
+  <si>
+    <t>EQ022</t>
+  </si>
+  <si>
+    <t>EQ023</t>
+  </si>
+  <si>
+    <t>EQ024</t>
+  </si>
+  <si>
+    <t>EQ025</t>
+  </si>
+  <si>
+    <t>EQ026</t>
+  </si>
+  <si>
+    <t>EQ027</t>
+  </si>
+  <si>
+    <t>EQ028</t>
+  </si>
+  <si>
+    <t>EQ029</t>
+  </si>
+  <si>
+    <t>EQ030</t>
+  </si>
+  <si>
+    <t>EQ031</t>
+  </si>
+  <si>
+    <t>EQ032</t>
+  </si>
+  <si>
+    <t>EQ033</t>
+  </si>
+  <si>
+    <t>EQ034</t>
+  </si>
+  <si>
+    <t>EQ035</t>
+  </si>
+  <si>
+    <t>EQ036</t>
+  </si>
+  <si>
+    <t>EQ037</t>
+  </si>
+  <si>
+    <t>EQ038</t>
+  </si>
+  <si>
+    <t>EQ039</t>
+  </si>
+  <si>
+    <t>EQ040</t>
+  </si>
+  <si>
+    <t>EQ041</t>
+  </si>
+  <si>
+    <t>EQ042</t>
+  </si>
+  <si>
+    <t>EQ043</t>
+  </si>
+  <si>
+    <t>EQ044</t>
+  </si>
+  <si>
+    <t>EQ045</t>
+  </si>
+  <si>
+    <t>EQ046</t>
+  </si>
+  <si>
+    <t>EQ047</t>
+  </si>
+  <si>
+    <t>EQ048</t>
+  </si>
+  <si>
+    <t>EQ049</t>
+  </si>
+  <si>
+    <t>EQ050</t>
+  </si>
+  <si>
+    <t>COMP-001-1</t>
+  </si>
+  <si>
+    <t>COMP-001-2</t>
+  </si>
+  <si>
+    <t>COMP-002-1</t>
+  </si>
+  <si>
+    <t>COMP-002-2</t>
+  </si>
+  <si>
+    <t>COMP-002-3</t>
+  </si>
+  <si>
+    <t>COMP-002-4</t>
+  </si>
+  <si>
+    <t>COMP-003-1</t>
+  </si>
+  <si>
+    <t>COMP-003-2</t>
+  </si>
+  <si>
+    <t>COMP-003-3</t>
+  </si>
+  <si>
+    <t>COMP-004-1</t>
+  </si>
+  <si>
+    <t>COMP-004-2</t>
+  </si>
+  <si>
+    <t>COMP-005-1</t>
+  </si>
+  <si>
+    <t>COMP-005-2</t>
+  </si>
+  <si>
+    <t>COMP-006-1</t>
+  </si>
+  <si>
+    <t>COMP-006-2</t>
+  </si>
+  <si>
+    <t>COMP-007-1</t>
+  </si>
+  <si>
+    <t>COMP-007-2</t>
+  </si>
+  <si>
+    <t>COMP-007-3</t>
+  </si>
+  <si>
+    <t>COMP-008-1</t>
+  </si>
+  <si>
+    <t>COMP-008-2</t>
+  </si>
+  <si>
+    <t>COMP-009-1</t>
+  </si>
+  <si>
+    <t>COMP-009-2</t>
+  </si>
+  <si>
+    <t>COMP-010-1</t>
+  </si>
+  <si>
+    <t>COMP-010-2</t>
+  </si>
+  <si>
+    <t>COMP-011-1</t>
+  </si>
+  <si>
+    <t>COMP-011-2</t>
+  </si>
+  <si>
+    <t>COMP-011-3</t>
+  </si>
+  <si>
+    <t>COMP-011-4</t>
+  </si>
+  <si>
+    <t>COMP-012-1</t>
+  </si>
+  <si>
+    <t>COMP-012-2</t>
+  </si>
+  <si>
+    <t>COMP-013-1</t>
+  </si>
+  <si>
+    <t>COMP-013-2</t>
+  </si>
+  <si>
+    <t>COMP-013-3</t>
+  </si>
+  <si>
+    <t>COMP-014-1</t>
+  </si>
+  <si>
+    <t>COMP-014-2</t>
+  </si>
+  <si>
+    <t>COMP-015-1</t>
+  </si>
+  <si>
+    <t>COMP-015-2</t>
+  </si>
+  <si>
+    <t>COMP-015-3</t>
+  </si>
+  <si>
+    <t>COMP-015-4</t>
+  </si>
+  <si>
+    <t>COMP-016-1</t>
+  </si>
+  <si>
+    <t>COMP-016-2</t>
+  </si>
+  <si>
+    <t>COMP-016-3</t>
+  </si>
+  <si>
+    <t>COMP-017-1</t>
+  </si>
+  <si>
+    <t>COMP-017-2</t>
+  </si>
+  <si>
+    <t>COMP-018-1</t>
+  </si>
+  <si>
+    <t>COMP-018-2</t>
+  </si>
+  <si>
+    <t>COMP-019-1</t>
+  </si>
+  <si>
+    <t>COMP-019-2</t>
+  </si>
+  <si>
+    <t>COMP-019-3</t>
+  </si>
+  <si>
+    <t>COMP-019-4</t>
+  </si>
+  <si>
+    <t>COMP-020-1</t>
+  </si>
+  <si>
+    <t>COMP-020-2</t>
+  </si>
+  <si>
+    <t>COMP-021-1</t>
+  </si>
+  <si>
+    <t>COMP-021-2</t>
+  </si>
+  <si>
+    <t>COMP-021-3</t>
+  </si>
+  <si>
+    <t>COMP-021-4</t>
+  </si>
+  <si>
+    <t>COMP-022-1</t>
+  </si>
+  <si>
+    <t>COMP-022-2</t>
+  </si>
+  <si>
+    <t>COMP-022-3</t>
+  </si>
+  <si>
+    <t>COMP-023-1</t>
+  </si>
+  <si>
+    <t>COMP-023-2</t>
+  </si>
+  <si>
+    <t>COMP-024-1</t>
+  </si>
+  <si>
+    <t>COMP-024-2</t>
+  </si>
+  <si>
+    <t>COMP-024-3</t>
+  </si>
+  <si>
+    <t>COMP-025-1</t>
+  </si>
+  <si>
+    <t>COMP-025-2</t>
+  </si>
+  <si>
+    <t>COMP-026-1</t>
+  </si>
+  <si>
+    <t>COMP-026-2</t>
+  </si>
+  <si>
+    <t>COMP-026-3</t>
+  </si>
+  <si>
+    <t>COMP-027-1</t>
+  </si>
+  <si>
+    <t>COMP-027-2</t>
+  </si>
+  <si>
+    <t>COMP-027-3</t>
+  </si>
+  <si>
+    <t>COMP-028-1</t>
+  </si>
+  <si>
+    <t>COMP-028-2</t>
+  </si>
+  <si>
+    <t>COMP-028-3</t>
+  </si>
+  <si>
+    <t>COMP-028-4</t>
+  </si>
+  <si>
+    <t>COMP-029-1</t>
+  </si>
+  <si>
+    <t>COMP-029-2</t>
+  </si>
+  <si>
+    <t>COMP-029-3</t>
+  </si>
+  <si>
+    <t>COMP-029-4</t>
+  </si>
+  <si>
+    <t>COMP-030-1</t>
+  </si>
+  <si>
+    <t>COMP-030-2</t>
+  </si>
+  <si>
+    <t>COMP-030-3</t>
+  </si>
+  <si>
+    <t>COMP-030-4</t>
+  </si>
+  <si>
+    <t>COMP-031-1</t>
+  </si>
+  <si>
+    <t>COMP-031-2</t>
+  </si>
+  <si>
+    <t>COMP-031-3</t>
+  </si>
+  <si>
+    <t>COMP-032-1</t>
+  </si>
+  <si>
+    <t>COMP-032-2</t>
+  </si>
+  <si>
+    <t>COMP-033-1</t>
+  </si>
+  <si>
+    <t>COMP-033-2</t>
+  </si>
+  <si>
+    <t>COMP-033-3</t>
+  </si>
+  <si>
+    <t>COMP-033-4</t>
+  </si>
+  <si>
+    <t>COMP-034-1</t>
+  </si>
+  <si>
+    <t>COMP-034-2</t>
+  </si>
+  <si>
+    <t>COMP-034-3</t>
+  </si>
+  <si>
+    <t>COMP-034-4</t>
+  </si>
+  <si>
+    <t>COMP-035-1</t>
+  </si>
+  <si>
+    <t>COMP-035-2</t>
+  </si>
+  <si>
+    <t>COMP-035-3</t>
+  </si>
+  <si>
+    <t>COMP-036-1</t>
+  </si>
+  <si>
+    <t>COMP-036-2</t>
+  </si>
+  <si>
+    <t>COMP-037-1</t>
+  </si>
+  <si>
+    <t>COMP-037-2</t>
+  </si>
+  <si>
+    <t>COMP-038-1</t>
+  </si>
+  <si>
+    <t>COMP-038-2</t>
+  </si>
+  <si>
+    <t>COMP-039-1</t>
+  </si>
+  <si>
+    <t>COMP-039-2</t>
+  </si>
+  <si>
+    <t>COMP-039-3</t>
+  </si>
+  <si>
+    <t>COMP-040-1</t>
+  </si>
+  <si>
+    <t>COMP-040-2</t>
+  </si>
+  <si>
+    <t>COMP-040-3</t>
+  </si>
+  <si>
+    <t>COMP-040-4</t>
+  </si>
+  <si>
+    <t>COMP-041-1</t>
+  </si>
+  <si>
+    <t>COMP-041-2</t>
+  </si>
+  <si>
+    <t>COMP-041-3</t>
+  </si>
+  <si>
+    <t>COMP-042-1</t>
+  </si>
+  <si>
+    <t>COMP-042-2</t>
+  </si>
+  <si>
+    <t>COMP-042-3</t>
+  </si>
+  <si>
+    <t>COMP-043-1</t>
+  </si>
+  <si>
+    <t>COMP-043-2</t>
+  </si>
+  <si>
+    <t>COMP-044-1</t>
+  </si>
+  <si>
+    <t>COMP-044-2</t>
+  </si>
+  <si>
+    <t>COMP-044-3</t>
+  </si>
+  <si>
+    <t>COMP-045-1</t>
+  </si>
+  <si>
+    <t>COMP-045-2</t>
+  </si>
+  <si>
+    <t>COMP-045-3</t>
+  </si>
+  <si>
+    <t>COMP-046-1</t>
+  </si>
+  <si>
+    <t>COMP-046-2</t>
+  </si>
+  <si>
+    <t>COMP-047-1</t>
+  </si>
+  <si>
+    <t>COMP-047-2</t>
+  </si>
+  <si>
+    <t>COMP-047-3</t>
+  </si>
+  <si>
+    <t>COMP-048-1</t>
+  </si>
+  <si>
+    <t>COMP-048-2</t>
+  </si>
+  <si>
+    <t>COMP-048-3</t>
+  </si>
+  <si>
+    <t>COMP-048-4</t>
+  </si>
+  <si>
+    <t>COMP-049-1</t>
+  </si>
+  <si>
+    <t>COMP-049-2</t>
+  </si>
+  <si>
+    <t>COMP-049-3</t>
+  </si>
+  <si>
+    <t>COMP-049-4</t>
+  </si>
+  <si>
+    <t>COMP-050-1</t>
+  </si>
+  <si>
+    <t>COMP-050-2</t>
+  </si>
+  <si>
+    <t>COMP-050-3</t>
+  </si>
+  <si>
+    <t>MOTOR Component 1</t>
+  </si>
+  <si>
+    <t>MOTOR Component 2</t>
+  </si>
+  <si>
+    <t>MILL Component 1</t>
+  </si>
+  <si>
+    <t>MILL Component 2</t>
+  </si>
+  <si>
+    <t>MILL Component 3</t>
+  </si>
+  <si>
+    <t>MILL Component 4</t>
+  </si>
+  <si>
+    <t>MOTOR Component 3</t>
+  </si>
+  <si>
+    <t>PUMP Component 1</t>
+  </si>
+  <si>
+    <t>PUMP Component 2</t>
+  </si>
+  <si>
+    <t>UG_CONVEYOR Component 1</t>
+  </si>
+  <si>
+    <t>UG_CONVEYOR Component 2</t>
+  </si>
+  <si>
+    <t>FAN Component 1</t>
+  </si>
+  <si>
+    <t>FAN Component 2</t>
+  </si>
+  <si>
+    <t>FAN Component 3</t>
+  </si>
+  <si>
+    <t>HOIST Component 1</t>
+  </si>
+  <si>
+    <t>HOIST Component 2</t>
+  </si>
+  <si>
+    <t>UG_CONVEYOR Component 3</t>
+  </si>
+  <si>
+    <t>UG_CONVEYOR Component 4</t>
+  </si>
+  <si>
+    <t>HOIST Component 3</t>
+  </si>
+  <si>
+    <t>MOTOR Component 4</t>
+  </si>
+  <si>
+    <t>PUMP Component 3</t>
+  </si>
+  <si>
+    <t>PUMP Component 4</t>
+  </si>
+  <si>
+    <t>FAN Component 4</t>
+  </si>
+  <si>
+    <t>HOIST Component 4</t>
+  </si>
+  <si>
+    <t>Wear</t>
+  </si>
+  <si>
+    <t>Critical</t>
+  </si>
+  <si>
+    <t>Spare</t>
   </si>
 </sst>
 </file>
@@ -404,13 +1046,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:E144"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -426,28 +1068,2436 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" t="s">
+        <v>198</v>
+      </c>
+      <c r="D2" t="s">
+        <v>222</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C3" t="s">
+        <v>199</v>
+      </c>
+      <c r="D3" t="s">
+        <v>223</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4" t="s">
+        <v>200</v>
+      </c>
+      <c r="D4" t="s">
+        <v>223</v>
+      </c>
+      <c r="E4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C5" t="s">
+        <v>201</v>
+      </c>
+      <c r="D5" t="s">
+        <v>222</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>59</v>
+      </c>
+      <c r="C6" t="s">
+        <v>202</v>
+      </c>
+      <c r="D6" t="s">
+        <v>222</v>
+      </c>
+      <c r="E6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C7" t="s">
+        <v>203</v>
+      </c>
+      <c r="D7" t="s">
+        <v>224</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
         <v>7</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C8" t="s">
+        <v>198</v>
+      </c>
+      <c r="D8" t="s">
+        <v>222</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>62</v>
+      </c>
+      <c r="C9" t="s">
+        <v>199</v>
+      </c>
+      <c r="D9" t="s">
+        <v>223</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
+        <v>63</v>
+      </c>
+      <c r="C10" t="s">
+        <v>204</v>
+      </c>
+      <c r="D10" t="s">
+        <v>224</v>
+      </c>
+      <c r="E10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
         <v>8</v>
       </c>
-      <c r="D2" t="s">
+      <c r="B11" t="s">
+        <v>64</v>
+      </c>
+      <c r="C11" t="s">
+        <v>205</v>
+      </c>
+      <c r="D11" t="s">
+        <v>224</v>
+      </c>
+      <c r="E11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" t="s">
+        <v>65</v>
+      </c>
+      <c r="C12" t="s">
+        <v>206</v>
+      </c>
+      <c r="D12" t="s">
+        <v>222</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
         <v>9</v>
       </c>
-      <c r="E2">
-        <v>4</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="B13" t="s">
+        <v>66</v>
+      </c>
+      <c r="C13" t="s">
+        <v>207</v>
+      </c>
+      <c r="D13" t="s">
+        <v>224</v>
+      </c>
+      <c r="E13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" t="s">
+        <v>67</v>
+      </c>
+      <c r="C14" t="s">
+        <v>208</v>
+      </c>
+      <c r="D14" t="s">
+        <v>223</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
         <v>10</v>
+      </c>
+      <c r="B15" t="s">
+        <v>68</v>
+      </c>
+      <c r="C15" t="s">
+        <v>207</v>
+      </c>
+      <c r="D15" t="s">
+        <v>224</v>
+      </c>
+      <c r="E15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" t="s">
+        <v>69</v>
+      </c>
+      <c r="C16" t="s">
+        <v>208</v>
+      </c>
+      <c r="D16" t="s">
+        <v>222</v>
+      </c>
+      <c r="E16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17" t="s">
+        <v>70</v>
+      </c>
+      <c r="C17" t="s">
+        <v>209</v>
+      </c>
+      <c r="D17" t="s">
+        <v>224</v>
+      </c>
+      <c r="E17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
+        <v>11</v>
+      </c>
+      <c r="B18" t="s">
+        <v>71</v>
+      </c>
+      <c r="C18" t="s">
+        <v>210</v>
+      </c>
+      <c r="D18" t="s">
+        <v>222</v>
+      </c>
+      <c r="E18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B19" t="s">
+        <v>72</v>
+      </c>
+      <c r="C19" t="s">
+        <v>211</v>
+      </c>
+      <c r="D19" t="s">
+        <v>222</v>
+      </c>
+      <c r="E19">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
+        <v>12</v>
+      </c>
+      <c r="B20" t="s">
+        <v>73</v>
+      </c>
+      <c r="C20" t="s">
+        <v>198</v>
+      </c>
+      <c r="D20" t="s">
+        <v>224</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21" t="s">
+        <v>74</v>
+      </c>
+      <c r="C21" t="s">
+        <v>199</v>
+      </c>
+      <c r="D21" t="s">
+        <v>224</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B22" t="s">
+        <v>75</v>
+      </c>
+      <c r="C22" t="s">
+        <v>207</v>
+      </c>
+      <c r="D22" t="s">
+        <v>224</v>
+      </c>
+      <c r="E22">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" t="s">
+        <v>13</v>
+      </c>
+      <c r="B23" t="s">
+        <v>76</v>
+      </c>
+      <c r="C23" t="s">
+        <v>208</v>
+      </c>
+      <c r="D23" t="s">
+        <v>222</v>
+      </c>
+      <c r="E23">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" t="s">
+        <v>14</v>
+      </c>
+      <c r="B24" t="s">
+        <v>77</v>
+      </c>
+      <c r="C24" t="s">
+        <v>212</v>
+      </c>
+      <c r="D24" t="s">
+        <v>224</v>
+      </c>
+      <c r="E24">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" t="s">
+        <v>14</v>
+      </c>
+      <c r="B25" t="s">
+        <v>78</v>
+      </c>
+      <c r="C25" t="s">
+        <v>213</v>
+      </c>
+      <c r="D25" t="s">
+        <v>224</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" t="s">
+        <v>15</v>
+      </c>
+      <c r="B26" t="s">
+        <v>79</v>
+      </c>
+      <c r="C26" t="s">
+        <v>200</v>
+      </c>
+      <c r="D26" t="s">
+        <v>223</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" t="s">
+        <v>15</v>
+      </c>
+      <c r="B27" t="s">
+        <v>80</v>
+      </c>
+      <c r="C27" t="s">
+        <v>201</v>
+      </c>
+      <c r="D27" t="s">
+        <v>223</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" t="s">
+        <v>15</v>
+      </c>
+      <c r="B28" t="s">
+        <v>81</v>
+      </c>
+      <c r="C28" t="s">
+        <v>202</v>
+      </c>
+      <c r="D28" t="s">
+        <v>222</v>
+      </c>
+      <c r="E28">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" t="s">
+        <v>15</v>
+      </c>
+      <c r="B29" t="s">
+        <v>82</v>
+      </c>
+      <c r="C29" t="s">
+        <v>203</v>
+      </c>
+      <c r="D29" t="s">
+        <v>223</v>
+      </c>
+      <c r="E29">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" t="s">
+        <v>16</v>
+      </c>
+      <c r="B30" t="s">
+        <v>83</v>
+      </c>
+      <c r="C30" t="s">
+        <v>205</v>
+      </c>
+      <c r="D30" t="s">
+        <v>222</v>
+      </c>
+      <c r="E30">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" t="s">
+        <v>16</v>
+      </c>
+      <c r="B31" t="s">
+        <v>84</v>
+      </c>
+      <c r="C31" t="s">
+        <v>206</v>
+      </c>
+      <c r="D31" t="s">
+        <v>224</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" t="s">
+        <v>17</v>
+      </c>
+      <c r="B32" t="s">
+        <v>85</v>
+      </c>
+      <c r="C32" t="s">
+        <v>209</v>
+      </c>
+      <c r="D32" t="s">
+        <v>223</v>
+      </c>
+      <c r="E32">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" t="s">
+        <v>17</v>
+      </c>
+      <c r="B33" t="s">
+        <v>86</v>
+      </c>
+      <c r="C33" t="s">
+        <v>210</v>
+      </c>
+      <c r="D33" t="s">
+        <v>224</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" t="s">
+        <v>17</v>
+      </c>
+      <c r="B34" t="s">
+        <v>87</v>
+      </c>
+      <c r="C34" t="s">
+        <v>211</v>
+      </c>
+      <c r="D34" t="s">
+        <v>223</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" t="s">
+        <v>18</v>
+      </c>
+      <c r="B35" t="s">
+        <v>88</v>
+      </c>
+      <c r="C35" t="s">
+        <v>207</v>
+      </c>
+      <c r="D35" t="s">
+        <v>224</v>
+      </c>
+      <c r="E35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" t="s">
+        <v>18</v>
+      </c>
+      <c r="B36" t="s">
+        <v>89</v>
+      </c>
+      <c r="C36" t="s">
+        <v>208</v>
+      </c>
+      <c r="D36" t="s">
+        <v>222</v>
+      </c>
+      <c r="E36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" t="s">
+        <v>19</v>
+      </c>
+      <c r="B37" t="s">
+        <v>90</v>
+      </c>
+      <c r="C37" t="s">
+        <v>207</v>
+      </c>
+      <c r="D37" t="s">
+        <v>223</v>
+      </c>
+      <c r="E37">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" t="s">
+        <v>19</v>
+      </c>
+      <c r="B38" t="s">
+        <v>91</v>
+      </c>
+      <c r="C38" t="s">
+        <v>208</v>
+      </c>
+      <c r="D38" t="s">
+        <v>224</v>
+      </c>
+      <c r="E38">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" t="s">
+        <v>19</v>
+      </c>
+      <c r="B39" t="s">
+        <v>92</v>
+      </c>
+      <c r="C39" t="s">
+        <v>214</v>
+      </c>
+      <c r="D39" t="s">
+        <v>222</v>
+      </c>
+      <c r="E39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" t="s">
+        <v>19</v>
+      </c>
+      <c r="B40" t="s">
+        <v>93</v>
+      </c>
+      <c r="C40" t="s">
+        <v>215</v>
+      </c>
+      <c r="D40" t="s">
+        <v>224</v>
+      </c>
+      <c r="E40">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" t="s">
+        <v>20</v>
+      </c>
+      <c r="B41" t="s">
+        <v>94</v>
+      </c>
+      <c r="C41" t="s">
+        <v>212</v>
+      </c>
+      <c r="D41" t="s">
+        <v>222</v>
+      </c>
+      <c r="E41">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" t="s">
+        <v>20</v>
+      </c>
+      <c r="B42" t="s">
+        <v>95</v>
+      </c>
+      <c r="C42" t="s">
+        <v>213</v>
+      </c>
+      <c r="D42" t="s">
+        <v>224</v>
+      </c>
+      <c r="E42">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" t="s">
+        <v>20</v>
+      </c>
+      <c r="B43" t="s">
+        <v>96</v>
+      </c>
+      <c r="C43" t="s">
+        <v>216</v>
+      </c>
+      <c r="D43" t="s">
+        <v>224</v>
+      </c>
+      <c r="E43">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" t="s">
+        <v>21</v>
+      </c>
+      <c r="B44" t="s">
+        <v>97</v>
+      </c>
+      <c r="C44" t="s">
+        <v>198</v>
+      </c>
+      <c r="D44" t="s">
+        <v>223</v>
+      </c>
+      <c r="E44">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" t="s">
+        <v>21</v>
+      </c>
+      <c r="B45" t="s">
+        <v>98</v>
+      </c>
+      <c r="C45" t="s">
+        <v>199</v>
+      </c>
+      <c r="D45" t="s">
+        <v>222</v>
+      </c>
+      <c r="E45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" t="s">
+        <v>22</v>
+      </c>
+      <c r="B46" t="s">
+        <v>99</v>
+      </c>
+      <c r="C46" t="s">
+        <v>200</v>
+      </c>
+      <c r="D46" t="s">
+        <v>223</v>
+      </c>
+      <c r="E46">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" t="s">
+        <v>22</v>
+      </c>
+      <c r="B47" t="s">
+        <v>100</v>
+      </c>
+      <c r="C47" t="s">
+        <v>201</v>
+      </c>
+      <c r="D47" t="s">
+        <v>223</v>
+      </c>
+      <c r="E47">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" t="s">
+        <v>23</v>
+      </c>
+      <c r="B48" t="s">
+        <v>101</v>
+      </c>
+      <c r="C48" t="s">
+        <v>198</v>
+      </c>
+      <c r="D48" t="s">
+        <v>224</v>
+      </c>
+      <c r="E48">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" t="s">
+        <v>23</v>
+      </c>
+      <c r="B49" t="s">
+        <v>102</v>
+      </c>
+      <c r="C49" t="s">
+        <v>199</v>
+      </c>
+      <c r="D49" t="s">
+        <v>224</v>
+      </c>
+      <c r="E49">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" t="s">
+        <v>23</v>
+      </c>
+      <c r="B50" t="s">
+        <v>103</v>
+      </c>
+      <c r="C50" t="s">
+        <v>204</v>
+      </c>
+      <c r="D50" t="s">
+        <v>223</v>
+      </c>
+      <c r="E50">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" t="s">
+        <v>23</v>
+      </c>
+      <c r="B51" t="s">
+        <v>104</v>
+      </c>
+      <c r="C51" t="s">
+        <v>217</v>
+      </c>
+      <c r="D51" t="s">
+        <v>224</v>
+      </c>
+      <c r="E51">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" t="s">
+        <v>24</v>
+      </c>
+      <c r="B52" t="s">
+        <v>105</v>
+      </c>
+      <c r="C52" t="s">
+        <v>198</v>
+      </c>
+      <c r="D52" t="s">
+        <v>222</v>
+      </c>
+      <c r="E52">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" t="s">
+        <v>24</v>
+      </c>
+      <c r="B53" t="s">
+        <v>106</v>
+      </c>
+      <c r="C53" t="s">
+        <v>199</v>
+      </c>
+      <c r="D53" t="s">
+        <v>223</v>
+      </c>
+      <c r="E53">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" t="s">
+        <v>25</v>
+      </c>
+      <c r="B54" t="s">
+        <v>107</v>
+      </c>
+      <c r="C54" t="s">
+        <v>205</v>
+      </c>
+      <c r="D54" t="s">
+        <v>223</v>
+      </c>
+      <c r="E54">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" t="s">
+        <v>25</v>
+      </c>
+      <c r="B55" t="s">
+        <v>108</v>
+      </c>
+      <c r="C55" t="s">
+        <v>206</v>
+      </c>
+      <c r="D55" t="s">
+        <v>224</v>
+      </c>
+      <c r="E55">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" t="s">
+        <v>25</v>
+      </c>
+      <c r="B56" t="s">
+        <v>109</v>
+      </c>
+      <c r="C56" t="s">
+        <v>218</v>
+      </c>
+      <c r="D56" t="s">
+        <v>224</v>
+      </c>
+      <c r="E56">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" t="s">
+        <v>25</v>
+      </c>
+      <c r="B57" t="s">
+        <v>110</v>
+      </c>
+      <c r="C57" t="s">
+        <v>219</v>
+      </c>
+      <c r="D57" t="s">
+        <v>224</v>
+      </c>
+      <c r="E57">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" t="s">
+        <v>26</v>
+      </c>
+      <c r="B58" t="s">
+        <v>111</v>
+      </c>
+      <c r="C58" t="s">
+        <v>200</v>
+      </c>
+      <c r="D58" t="s">
+        <v>224</v>
+      </c>
+      <c r="E58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" t="s">
+        <v>26</v>
+      </c>
+      <c r="B59" t="s">
+        <v>112</v>
+      </c>
+      <c r="C59" t="s">
+        <v>201</v>
+      </c>
+      <c r="D59" t="s">
+        <v>222</v>
+      </c>
+      <c r="E59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" t="s">
+        <v>26</v>
+      </c>
+      <c r="B60" t="s">
+        <v>113</v>
+      </c>
+      <c r="C60" t="s">
+        <v>202</v>
+      </c>
+      <c r="D60" t="s">
+        <v>222</v>
+      </c>
+      <c r="E60">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" t="s">
+        <v>27</v>
+      </c>
+      <c r="B61" t="s">
+        <v>114</v>
+      </c>
+      <c r="C61" t="s">
+        <v>200</v>
+      </c>
+      <c r="D61" t="s">
+        <v>224</v>
+      </c>
+      <c r="E61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" t="s">
+        <v>27</v>
+      </c>
+      <c r="B62" t="s">
+        <v>115</v>
+      </c>
+      <c r="C62" t="s">
+        <v>201</v>
+      </c>
+      <c r="D62" t="s">
+        <v>223</v>
+      </c>
+      <c r="E62">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" t="s">
+        <v>28</v>
+      </c>
+      <c r="B63" t="s">
+        <v>116</v>
+      </c>
+      <c r="C63" t="s">
+        <v>207</v>
+      </c>
+      <c r="D63" t="s">
+        <v>222</v>
+      </c>
+      <c r="E63">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" t="s">
+        <v>28</v>
+      </c>
+      <c r="B64" t="s">
+        <v>117</v>
+      </c>
+      <c r="C64" t="s">
+        <v>208</v>
+      </c>
+      <c r="D64" t="s">
+        <v>222</v>
+      </c>
+      <c r="E64">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" t="s">
+        <v>28</v>
+      </c>
+      <c r="B65" t="s">
+        <v>118</v>
+      </c>
+      <c r="C65" t="s">
+        <v>214</v>
+      </c>
+      <c r="D65" t="s">
+        <v>222</v>
+      </c>
+      <c r="E65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" t="s">
+        <v>29</v>
+      </c>
+      <c r="B66" t="s">
+        <v>119</v>
+      </c>
+      <c r="C66" t="s">
+        <v>205</v>
+      </c>
+      <c r="D66" t="s">
+        <v>224</v>
+      </c>
+      <c r="E66">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" t="s">
+        <v>29</v>
+      </c>
+      <c r="B67" t="s">
+        <v>120</v>
+      </c>
+      <c r="C67" t="s">
+        <v>206</v>
+      </c>
+      <c r="D67" t="s">
+        <v>222</v>
+      </c>
+      <c r="E67">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68" t="s">
+        <v>30</v>
+      </c>
+      <c r="B68" t="s">
+        <v>121</v>
+      </c>
+      <c r="C68" t="s">
+        <v>200</v>
+      </c>
+      <c r="D68" t="s">
+        <v>223</v>
+      </c>
+      <c r="E68">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69" t="s">
+        <v>30</v>
+      </c>
+      <c r="B69" t="s">
+        <v>122</v>
+      </c>
+      <c r="C69" t="s">
+        <v>201</v>
+      </c>
+      <c r="D69" t="s">
+        <v>222</v>
+      </c>
+      <c r="E69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70" t="s">
+        <v>30</v>
+      </c>
+      <c r="B70" t="s">
+        <v>123</v>
+      </c>
+      <c r="C70" t="s">
+        <v>202</v>
+      </c>
+      <c r="D70" t="s">
+        <v>223</v>
+      </c>
+      <c r="E70">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71" t="s">
+        <v>31</v>
+      </c>
+      <c r="B71" t="s">
+        <v>124</v>
+      </c>
+      <c r="C71" t="s">
+        <v>209</v>
+      </c>
+      <c r="D71" t="s">
+        <v>222</v>
+      </c>
+      <c r="E71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72" t="s">
+        <v>31</v>
+      </c>
+      <c r="B72" t="s">
+        <v>125</v>
+      </c>
+      <c r="C72" t="s">
+        <v>210</v>
+      </c>
+      <c r="D72" t="s">
+        <v>223</v>
+      </c>
+      <c r="E72">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73" t="s">
+        <v>31</v>
+      </c>
+      <c r="B73" t="s">
+        <v>126</v>
+      </c>
+      <c r="C73" t="s">
+        <v>211</v>
+      </c>
+      <c r="D73" t="s">
+        <v>223</v>
+      </c>
+      <c r="E73">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74" t="s">
+        <v>32</v>
+      </c>
+      <c r="B74" t="s">
+        <v>127</v>
+      </c>
+      <c r="C74" t="s">
+        <v>205</v>
+      </c>
+      <c r="D74" t="s">
+        <v>222</v>
+      </c>
+      <c r="E74">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75" t="s">
+        <v>32</v>
+      </c>
+      <c r="B75" t="s">
+        <v>128</v>
+      </c>
+      <c r="C75" t="s">
+        <v>206</v>
+      </c>
+      <c r="D75" t="s">
+        <v>222</v>
+      </c>
+      <c r="E75">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76" t="s">
+        <v>32</v>
+      </c>
+      <c r="B76" t="s">
+        <v>129</v>
+      </c>
+      <c r="C76" t="s">
+        <v>218</v>
+      </c>
+      <c r="D76" t="s">
+        <v>223</v>
+      </c>
+      <c r="E76">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="A77" t="s">
+        <v>32</v>
+      </c>
+      <c r="B77" t="s">
+        <v>130</v>
+      </c>
+      <c r="C77" t="s">
+        <v>219</v>
+      </c>
+      <c r="D77" t="s">
+        <v>223</v>
+      </c>
+      <c r="E77">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="A78" t="s">
+        <v>33</v>
+      </c>
+      <c r="B78" t="s">
+        <v>131</v>
+      </c>
+      <c r="C78" t="s">
+        <v>209</v>
+      </c>
+      <c r="D78" t="s">
+        <v>223</v>
+      </c>
+      <c r="E78">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79" t="s">
+        <v>33</v>
+      </c>
+      <c r="B79" t="s">
+        <v>132</v>
+      </c>
+      <c r="C79" t="s">
+        <v>210</v>
+      </c>
+      <c r="D79" t="s">
+        <v>223</v>
+      </c>
+      <c r="E79">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80" t="s">
+        <v>33</v>
+      </c>
+      <c r="B80" t="s">
+        <v>133</v>
+      </c>
+      <c r="C80" t="s">
+        <v>211</v>
+      </c>
+      <c r="D80" t="s">
+        <v>222</v>
+      </c>
+      <c r="E80">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="A81" t="s">
+        <v>33</v>
+      </c>
+      <c r="B81" t="s">
+        <v>134</v>
+      </c>
+      <c r="C81" t="s">
+        <v>220</v>
+      </c>
+      <c r="D81" t="s">
+        <v>223</v>
+      </c>
+      <c r="E81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
+      <c r="A82" t="s">
+        <v>34</v>
+      </c>
+      <c r="B82" t="s">
+        <v>135</v>
+      </c>
+      <c r="C82" t="s">
+        <v>212</v>
+      </c>
+      <c r="D82" t="s">
+        <v>223</v>
+      </c>
+      <c r="E82">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
+      <c r="A83" t="s">
+        <v>34</v>
+      </c>
+      <c r="B83" t="s">
+        <v>136</v>
+      </c>
+      <c r="C83" t="s">
+        <v>213</v>
+      </c>
+      <c r="D83" t="s">
+        <v>222</v>
+      </c>
+      <c r="E83">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5">
+      <c r="A84" t="s">
+        <v>34</v>
+      </c>
+      <c r="B84" t="s">
+        <v>137</v>
+      </c>
+      <c r="C84" t="s">
+        <v>216</v>
+      </c>
+      <c r="D84" t="s">
+        <v>222</v>
+      </c>
+      <c r="E84">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
+      <c r="A85" t="s">
+        <v>34</v>
+      </c>
+      <c r="B85" t="s">
+        <v>138</v>
+      </c>
+      <c r="C85" t="s">
+        <v>221</v>
+      </c>
+      <c r="D85" t="s">
+        <v>223</v>
+      </c>
+      <c r="E85">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5">
+      <c r="A86" t="s">
+        <v>35</v>
+      </c>
+      <c r="B86" t="s">
+        <v>139</v>
+      </c>
+      <c r="C86" t="s">
+        <v>205</v>
+      </c>
+      <c r="D86" t="s">
+        <v>223</v>
+      </c>
+      <c r="E86">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5">
+      <c r="A87" t="s">
+        <v>35</v>
+      </c>
+      <c r="B87" t="s">
+        <v>140</v>
+      </c>
+      <c r="C87" t="s">
+        <v>206</v>
+      </c>
+      <c r="D87" t="s">
+        <v>222</v>
+      </c>
+      <c r="E87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5">
+      <c r="A88" t="s">
+        <v>35</v>
+      </c>
+      <c r="B88" t="s">
+        <v>141</v>
+      </c>
+      <c r="C88" t="s">
+        <v>218</v>
+      </c>
+      <c r="D88" t="s">
+        <v>224</v>
+      </c>
+      <c r="E88">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5">
+      <c r="A89" t="s">
+        <v>36</v>
+      </c>
+      <c r="B89" t="s">
+        <v>142</v>
+      </c>
+      <c r="C89" t="s">
+        <v>209</v>
+      </c>
+      <c r="D89" t="s">
+        <v>224</v>
+      </c>
+      <c r="E89">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5">
+      <c r="A90" t="s">
+        <v>36</v>
+      </c>
+      <c r="B90" t="s">
+        <v>143</v>
+      </c>
+      <c r="C90" t="s">
+        <v>210</v>
+      </c>
+      <c r="D90" t="s">
+        <v>223</v>
+      </c>
+      <c r="E90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5">
+      <c r="A91" t="s">
+        <v>37</v>
+      </c>
+      <c r="B91" t="s">
+        <v>144</v>
+      </c>
+      <c r="C91" t="s">
+        <v>212</v>
+      </c>
+      <c r="D91" t="s">
+        <v>223</v>
+      </c>
+      <c r="E91">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5">
+      <c r="A92" t="s">
+        <v>37</v>
+      </c>
+      <c r="B92" t="s">
+        <v>145</v>
+      </c>
+      <c r="C92" t="s">
+        <v>213</v>
+      </c>
+      <c r="D92" t="s">
+        <v>222</v>
+      </c>
+      <c r="E92">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5">
+      <c r="A93" t="s">
+        <v>37</v>
+      </c>
+      <c r="B93" t="s">
+        <v>146</v>
+      </c>
+      <c r="C93" t="s">
+        <v>216</v>
+      </c>
+      <c r="D93" t="s">
+        <v>224</v>
+      </c>
+      <c r="E93">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5">
+      <c r="A94" t="s">
+        <v>37</v>
+      </c>
+      <c r="B94" t="s">
+        <v>147</v>
+      </c>
+      <c r="C94" t="s">
+        <v>221</v>
+      </c>
+      <c r="D94" t="s">
+        <v>223</v>
+      </c>
+      <c r="E94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5">
+      <c r="A95" t="s">
+        <v>38</v>
+      </c>
+      <c r="B95" t="s">
+        <v>148</v>
+      </c>
+      <c r="C95" t="s">
+        <v>200</v>
+      </c>
+      <c r="D95" t="s">
+        <v>223</v>
+      </c>
+      <c r="E95">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5">
+      <c r="A96" t="s">
+        <v>38</v>
+      </c>
+      <c r="B96" t="s">
+        <v>149</v>
+      </c>
+      <c r="C96" t="s">
+        <v>201</v>
+      </c>
+      <c r="D96" t="s">
+        <v>224</v>
+      </c>
+      <c r="E96">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5">
+      <c r="A97" t="s">
+        <v>38</v>
+      </c>
+      <c r="B97" t="s">
+        <v>150</v>
+      </c>
+      <c r="C97" t="s">
+        <v>202</v>
+      </c>
+      <c r="D97" t="s">
+        <v>224</v>
+      </c>
+      <c r="E97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5">
+      <c r="A98" t="s">
+        <v>38</v>
+      </c>
+      <c r="B98" t="s">
+        <v>151</v>
+      </c>
+      <c r="C98" t="s">
+        <v>203</v>
+      </c>
+      <c r="D98" t="s">
+        <v>222</v>
+      </c>
+      <c r="E98">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5">
+      <c r="A99" t="s">
+        <v>39</v>
+      </c>
+      <c r="B99" t="s">
+        <v>152</v>
+      </c>
+      <c r="C99" t="s">
+        <v>207</v>
+      </c>
+      <c r="D99" t="s">
+        <v>223</v>
+      </c>
+      <c r="E99">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5">
+      <c r="A100" t="s">
+        <v>39</v>
+      </c>
+      <c r="B100" t="s">
+        <v>153</v>
+      </c>
+      <c r="C100" t="s">
+        <v>208</v>
+      </c>
+      <c r="D100" t="s">
+        <v>222</v>
+      </c>
+      <c r="E100">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5">
+      <c r="A101" t="s">
+        <v>39</v>
+      </c>
+      <c r="B101" t="s">
+        <v>154</v>
+      </c>
+      <c r="C101" t="s">
+        <v>214</v>
+      </c>
+      <c r="D101" t="s">
+        <v>222</v>
+      </c>
+      <c r="E101">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5">
+      <c r="A102" t="s">
+        <v>40</v>
+      </c>
+      <c r="B102" t="s">
+        <v>155</v>
+      </c>
+      <c r="C102" t="s">
+        <v>198</v>
+      </c>
+      <c r="D102" t="s">
+        <v>223</v>
+      </c>
+      <c r="E102">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5">
+      <c r="A103" t="s">
+        <v>40</v>
+      </c>
+      <c r="B103" t="s">
+        <v>156</v>
+      </c>
+      <c r="C103" t="s">
+        <v>199</v>
+      </c>
+      <c r="D103" t="s">
+        <v>223</v>
+      </c>
+      <c r="E103">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5">
+      <c r="A104" t="s">
+        <v>41</v>
+      </c>
+      <c r="B104" t="s">
+        <v>157</v>
+      </c>
+      <c r="C104" t="s">
+        <v>212</v>
+      </c>
+      <c r="D104" t="s">
+        <v>223</v>
+      </c>
+      <c r="E104">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5">
+      <c r="A105" t="s">
+        <v>41</v>
+      </c>
+      <c r="B105" t="s">
+        <v>158</v>
+      </c>
+      <c r="C105" t="s">
+        <v>213</v>
+      </c>
+      <c r="D105" t="s">
+        <v>224</v>
+      </c>
+      <c r="E105">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5">
+      <c r="A106" t="s">
+        <v>42</v>
+      </c>
+      <c r="B106" t="s">
+        <v>159</v>
+      </c>
+      <c r="C106" t="s">
+        <v>200</v>
+      </c>
+      <c r="D106" t="s">
+        <v>224</v>
+      </c>
+      <c r="E106">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5">
+      <c r="A107" t="s">
+        <v>42</v>
+      </c>
+      <c r="B107" t="s">
+        <v>160</v>
+      </c>
+      <c r="C107" t="s">
+        <v>201</v>
+      </c>
+      <c r="D107" t="s">
+        <v>222</v>
+      </c>
+      <c r="E107">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5">
+      <c r="A108" t="s">
+        <v>43</v>
+      </c>
+      <c r="B108" t="s">
+        <v>161</v>
+      </c>
+      <c r="C108" t="s">
+        <v>200</v>
+      </c>
+      <c r="D108" t="s">
+        <v>222</v>
+      </c>
+      <c r="E108">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5">
+      <c r="A109" t="s">
+        <v>43</v>
+      </c>
+      <c r="B109" t="s">
+        <v>162</v>
+      </c>
+      <c r="C109" t="s">
+        <v>201</v>
+      </c>
+      <c r="D109" t="s">
+        <v>222</v>
+      </c>
+      <c r="E109">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5">
+      <c r="A110" t="s">
+        <v>43</v>
+      </c>
+      <c r="B110" t="s">
+        <v>163</v>
+      </c>
+      <c r="C110" t="s">
+        <v>202</v>
+      </c>
+      <c r="D110" t="s">
+        <v>224</v>
+      </c>
+      <c r="E110">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5">
+      <c r="A111" t="s">
+        <v>44</v>
+      </c>
+      <c r="B111" t="s">
+        <v>164</v>
+      </c>
+      <c r="C111" t="s">
+        <v>200</v>
+      </c>
+      <c r="D111" t="s">
+        <v>222</v>
+      </c>
+      <c r="E111">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5">
+      <c r="A112" t="s">
+        <v>44</v>
+      </c>
+      <c r="B112" t="s">
+        <v>165</v>
+      </c>
+      <c r="C112" t="s">
+        <v>201</v>
+      </c>
+      <c r="D112" t="s">
+        <v>224</v>
+      </c>
+      <c r="E112">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5">
+      <c r="A113" t="s">
+        <v>44</v>
+      </c>
+      <c r="B113" t="s">
+        <v>166</v>
+      </c>
+      <c r="C113" t="s">
+        <v>202</v>
+      </c>
+      <c r="D113" t="s">
+        <v>222</v>
+      </c>
+      <c r="E113">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5">
+      <c r="A114" t="s">
+        <v>44</v>
+      </c>
+      <c r="B114" t="s">
+        <v>167</v>
+      </c>
+      <c r="C114" t="s">
+        <v>203</v>
+      </c>
+      <c r="D114" t="s">
+        <v>222</v>
+      </c>
+      <c r="E114">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5">
+      <c r="A115" t="s">
+        <v>45</v>
+      </c>
+      <c r="B115" t="s">
+        <v>168</v>
+      </c>
+      <c r="C115" t="s">
+        <v>207</v>
+      </c>
+      <c r="D115" t="s">
+        <v>224</v>
+      </c>
+      <c r="E115">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5">
+      <c r="A116" t="s">
+        <v>45</v>
+      </c>
+      <c r="B116" t="s">
+        <v>169</v>
+      </c>
+      <c r="C116" t="s">
+        <v>208</v>
+      </c>
+      <c r="D116" t="s">
+        <v>222</v>
+      </c>
+      <c r="E116">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5">
+      <c r="A117" t="s">
+        <v>45</v>
+      </c>
+      <c r="B117" t="s">
+        <v>170</v>
+      </c>
+      <c r="C117" t="s">
+        <v>214</v>
+      </c>
+      <c r="D117" t="s">
+        <v>224</v>
+      </c>
+      <c r="E117">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5">
+      <c r="A118" t="s">
+        <v>46</v>
+      </c>
+      <c r="B118" t="s">
+        <v>171</v>
+      </c>
+      <c r="C118" t="s">
+        <v>205</v>
+      </c>
+      <c r="D118" t="s">
+        <v>224</v>
+      </c>
+      <c r="E118">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5">
+      <c r="A119" t="s">
+        <v>46</v>
+      </c>
+      <c r="B119" t="s">
+        <v>172</v>
+      </c>
+      <c r="C119" t="s">
+        <v>206</v>
+      </c>
+      <c r="D119" t="s">
+        <v>223</v>
+      </c>
+      <c r="E119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5">
+      <c r="A120" t="s">
+        <v>46</v>
+      </c>
+      <c r="B120" t="s">
+        <v>173</v>
+      </c>
+      <c r="C120" t="s">
+        <v>218</v>
+      </c>
+      <c r="D120" t="s">
+        <v>222</v>
+      </c>
+      <c r="E120">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5">
+      <c r="A121" t="s">
+        <v>47</v>
+      </c>
+      <c r="B121" t="s">
+        <v>174</v>
+      </c>
+      <c r="C121" t="s">
+        <v>198</v>
+      </c>
+      <c r="D121" t="s">
+        <v>222</v>
+      </c>
+      <c r="E121">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5">
+      <c r="A122" t="s">
+        <v>47</v>
+      </c>
+      <c r="B122" t="s">
+        <v>175</v>
+      </c>
+      <c r="C122" t="s">
+        <v>199</v>
+      </c>
+      <c r="D122" t="s">
+        <v>224</v>
+      </c>
+      <c r="E122">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5">
+      <c r="A123" t="s">
+        <v>48</v>
+      </c>
+      <c r="B123" t="s">
+        <v>176</v>
+      </c>
+      <c r="C123" t="s">
+        <v>209</v>
+      </c>
+      <c r="D123" t="s">
+        <v>222</v>
+      </c>
+      <c r="E123">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5">
+      <c r="A124" t="s">
+        <v>48</v>
+      </c>
+      <c r="B124" t="s">
+        <v>177</v>
+      </c>
+      <c r="C124" t="s">
+        <v>210</v>
+      </c>
+      <c r="D124" t="s">
+        <v>222</v>
+      </c>
+      <c r="E124">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5">
+      <c r="A125" t="s">
+        <v>48</v>
+      </c>
+      <c r="B125" t="s">
+        <v>178</v>
+      </c>
+      <c r="C125" t="s">
+        <v>211</v>
+      </c>
+      <c r="D125" t="s">
+        <v>222</v>
+      </c>
+      <c r="E125">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5">
+      <c r="A126" t="s">
+        <v>49</v>
+      </c>
+      <c r="B126" t="s">
+        <v>179</v>
+      </c>
+      <c r="C126" t="s">
+        <v>198</v>
+      </c>
+      <c r="D126" t="s">
+        <v>224</v>
+      </c>
+      <c r="E126">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5">
+      <c r="A127" t="s">
+        <v>49</v>
+      </c>
+      <c r="B127" t="s">
+        <v>180</v>
+      </c>
+      <c r="C127" t="s">
+        <v>199</v>
+      </c>
+      <c r="D127" t="s">
+        <v>223</v>
+      </c>
+      <c r="E127">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5">
+      <c r="A128" t="s">
+        <v>49</v>
+      </c>
+      <c r="B128" t="s">
+        <v>181</v>
+      </c>
+      <c r="C128" t="s">
+        <v>204</v>
+      </c>
+      <c r="D128" t="s">
+        <v>224</v>
+      </c>
+      <c r="E128">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5">
+      <c r="A129" t="s">
+        <v>50</v>
+      </c>
+      <c r="B129" t="s">
+        <v>182</v>
+      </c>
+      <c r="C129" t="s">
+        <v>198</v>
+      </c>
+      <c r="D129" t="s">
+        <v>224</v>
+      </c>
+      <c r="E129">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5">
+      <c r="A130" t="s">
+        <v>50</v>
+      </c>
+      <c r="B130" t="s">
+        <v>183</v>
+      </c>
+      <c r="C130" t="s">
+        <v>199</v>
+      </c>
+      <c r="D130" t="s">
+        <v>223</v>
+      </c>
+      <c r="E130">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5">
+      <c r="A131" t="s">
+        <v>51</v>
+      </c>
+      <c r="B131" t="s">
+        <v>184</v>
+      </c>
+      <c r="C131" t="s">
+        <v>205</v>
+      </c>
+      <c r="D131" t="s">
+        <v>224</v>
+      </c>
+      <c r="E131">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5">
+      <c r="A132" t="s">
+        <v>51</v>
+      </c>
+      <c r="B132" t="s">
+        <v>185</v>
+      </c>
+      <c r="C132" t="s">
+        <v>206</v>
+      </c>
+      <c r="D132" t="s">
+        <v>223</v>
+      </c>
+      <c r="E132">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5">
+      <c r="A133" t="s">
+        <v>51</v>
+      </c>
+      <c r="B133" t="s">
+        <v>186</v>
+      </c>
+      <c r="C133" t="s">
+        <v>218</v>
+      </c>
+      <c r="D133" t="s">
+        <v>224</v>
+      </c>
+      <c r="E133">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5">
+      <c r="A134" t="s">
+        <v>52</v>
+      </c>
+      <c r="B134" t="s">
+        <v>187</v>
+      </c>
+      <c r="C134" t="s">
+        <v>212</v>
+      </c>
+      <c r="D134" t="s">
+        <v>223</v>
+      </c>
+      <c r="E134">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5">
+      <c r="A135" t="s">
+        <v>52</v>
+      </c>
+      <c r="B135" t="s">
+        <v>188</v>
+      </c>
+      <c r="C135" t="s">
+        <v>213</v>
+      </c>
+      <c r="D135" t="s">
+        <v>222</v>
+      </c>
+      <c r="E135">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5">
+      <c r="A136" t="s">
+        <v>52</v>
+      </c>
+      <c r="B136" t="s">
+        <v>189</v>
+      </c>
+      <c r="C136" t="s">
+        <v>216</v>
+      </c>
+      <c r="D136" t="s">
+        <v>224</v>
+      </c>
+      <c r="E136">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5">
+      <c r="A137" t="s">
+        <v>52</v>
+      </c>
+      <c r="B137" t="s">
+        <v>190</v>
+      </c>
+      <c r="C137" t="s">
+        <v>221</v>
+      </c>
+      <c r="D137" t="s">
+        <v>223</v>
+      </c>
+      <c r="E137">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5">
+      <c r="A138" t="s">
+        <v>53</v>
+      </c>
+      <c r="B138" t="s">
+        <v>191</v>
+      </c>
+      <c r="C138" t="s">
+        <v>209</v>
+      </c>
+      <c r="D138" t="s">
+        <v>224</v>
+      </c>
+      <c r="E138">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5">
+      <c r="A139" t="s">
+        <v>53</v>
+      </c>
+      <c r="B139" t="s">
+        <v>192</v>
+      </c>
+      <c r="C139" t="s">
+        <v>210</v>
+      </c>
+      <c r="D139" t="s">
+        <v>223</v>
+      </c>
+      <c r="E139">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5">
+      <c r="A140" t="s">
+        <v>53</v>
+      </c>
+      <c r="B140" t="s">
+        <v>193</v>
+      </c>
+      <c r="C140" t="s">
+        <v>211</v>
+      </c>
+      <c r="D140" t="s">
+        <v>223</v>
+      </c>
+      <c r="E140">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5">
+      <c r="A141" t="s">
+        <v>53</v>
+      </c>
+      <c r="B141" t="s">
+        <v>194</v>
+      </c>
+      <c r="C141" t="s">
+        <v>220</v>
+      </c>
+      <c r="D141" t="s">
+        <v>224</v>
+      </c>
+      <c r="E141">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5">
+      <c r="A142" t="s">
+        <v>54</v>
+      </c>
+      <c r="B142" t="s">
+        <v>195</v>
+      </c>
+      <c r="C142" t="s">
+        <v>212</v>
+      </c>
+      <c r="D142" t="s">
+        <v>224</v>
+      </c>
+      <c r="E142">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5">
+      <c r="A143" t="s">
+        <v>54</v>
+      </c>
+      <c r="B143" t="s">
+        <v>196</v>
+      </c>
+      <c r="C143" t="s">
+        <v>213</v>
+      </c>
+      <c r="D143" t="s">
+        <v>222</v>
+      </c>
+      <c r="E143">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5">
+      <c r="A144" t="s">
+        <v>54</v>
+      </c>
+      <c r="B144" t="s">
+        <v>197</v>
+      </c>
+      <c r="C144" t="s">
+        <v>216</v>
+      </c>
+      <c r="D144" t="s">
+        <v>223</v>
+      </c>
+      <c r="E144">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/data_templates/BOM_Template.xlsx
+++ b/data_templates/BOM_Template.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="233">
   <si>
     <t>Equipment ID</t>
   </si>
@@ -193,12 +193,6 @@
     <t>COMP-002-2</t>
   </si>
   <si>
-    <t>COMP-002-3</t>
-  </si>
-  <si>
-    <t>COMP-002-4</t>
-  </si>
-  <si>
     <t>COMP-003-1</t>
   </si>
   <si>
@@ -208,6 +202,9 @@
     <t>COMP-003-3</t>
   </si>
   <si>
+    <t>COMP-003-4</t>
+  </si>
+  <si>
     <t>COMP-004-1</t>
   </si>
   <si>
@@ -235,6 +232,9 @@
     <t>COMP-007-3</t>
   </si>
   <si>
+    <t>COMP-007-4</t>
+  </si>
+  <si>
     <t>COMP-008-1</t>
   </si>
   <si>
@@ -247,6 +247,12 @@
     <t>COMP-009-2</t>
   </si>
   <si>
+    <t>COMP-009-3</t>
+  </si>
+  <si>
+    <t>COMP-009-4</t>
+  </si>
+  <si>
     <t>COMP-010-1</t>
   </si>
   <si>
@@ -262,15 +268,18 @@
     <t>COMP-011-3</t>
   </si>
   <si>
-    <t>COMP-011-4</t>
-  </si>
-  <si>
     <t>COMP-012-1</t>
   </si>
   <si>
     <t>COMP-012-2</t>
   </si>
   <si>
+    <t>COMP-012-3</t>
+  </si>
+  <si>
+    <t>COMP-012-4</t>
+  </si>
+  <si>
     <t>COMP-013-1</t>
   </si>
   <si>
@@ -295,9 +304,6 @@
     <t>COMP-015-3</t>
   </si>
   <si>
-    <t>COMP-015-4</t>
-  </si>
-  <si>
     <t>COMP-016-1</t>
   </si>
   <si>
@@ -307,18 +313,30 @@
     <t>COMP-016-3</t>
   </si>
   <si>
+    <t>COMP-016-4</t>
+  </si>
+  <si>
     <t>COMP-017-1</t>
   </si>
   <si>
     <t>COMP-017-2</t>
   </si>
   <si>
+    <t>COMP-017-3</t>
+  </si>
+  <si>
     <t>COMP-018-1</t>
   </si>
   <si>
     <t>COMP-018-2</t>
   </si>
   <si>
+    <t>COMP-018-3</t>
+  </si>
+  <si>
+    <t>COMP-018-4</t>
+  </si>
+  <si>
     <t>COMP-019-1</t>
   </si>
   <si>
@@ -337,48 +355,48 @@
     <t>COMP-020-2</t>
   </si>
   <si>
+    <t>COMP-020-3</t>
+  </si>
+  <si>
+    <t>COMP-020-4</t>
+  </si>
+  <si>
     <t>COMP-021-1</t>
   </si>
   <si>
     <t>COMP-021-2</t>
   </si>
   <si>
-    <t>COMP-021-3</t>
-  </si>
-  <si>
-    <t>COMP-021-4</t>
-  </si>
-  <si>
     <t>COMP-022-1</t>
   </si>
   <si>
     <t>COMP-022-2</t>
   </si>
   <si>
-    <t>COMP-022-3</t>
-  </si>
-  <si>
     <t>COMP-023-1</t>
   </si>
   <si>
     <t>COMP-023-2</t>
   </si>
   <si>
+    <t>COMP-023-3</t>
+  </si>
+  <si>
     <t>COMP-024-1</t>
   </si>
   <si>
     <t>COMP-024-2</t>
   </si>
   <si>
-    <t>COMP-024-3</t>
-  </si>
-  <si>
     <t>COMP-025-1</t>
   </si>
   <si>
     <t>COMP-025-2</t>
   </si>
   <si>
+    <t>COMP-025-3</t>
+  </si>
+  <si>
     <t>COMP-026-1</t>
   </si>
   <si>
@@ -397,6 +415,9 @@
     <t>COMP-027-3</t>
   </si>
   <si>
+    <t>COMP-027-4</t>
+  </si>
+  <si>
     <t>COMP-028-1</t>
   </si>
   <si>
@@ -418,9 +439,6 @@
     <t>COMP-029-3</t>
   </si>
   <si>
-    <t>COMP-029-4</t>
-  </si>
-  <si>
     <t>COMP-030-1</t>
   </si>
   <si>
@@ -442,12 +460,21 @@
     <t>COMP-031-3</t>
   </si>
   <si>
+    <t>COMP-031-4</t>
+  </si>
+  <si>
     <t>COMP-032-1</t>
   </si>
   <si>
     <t>COMP-032-2</t>
   </si>
   <si>
+    <t>COMP-032-3</t>
+  </si>
+  <si>
+    <t>COMP-032-4</t>
+  </si>
+  <si>
     <t>COMP-033-1</t>
   </si>
   <si>
@@ -457,9 +484,6 @@
     <t>COMP-033-3</t>
   </si>
   <si>
-    <t>COMP-033-4</t>
-  </si>
-  <si>
     <t>COMP-034-1</t>
   </si>
   <si>
@@ -469,9 +493,6 @@
     <t>COMP-034-3</t>
   </si>
   <si>
-    <t>COMP-034-4</t>
-  </si>
-  <si>
     <t>COMP-035-1</t>
   </si>
   <si>
@@ -487,12 +508,18 @@
     <t>COMP-036-2</t>
   </si>
   <si>
+    <t>COMP-036-3</t>
+  </si>
+  <si>
     <t>COMP-037-1</t>
   </si>
   <si>
     <t>COMP-037-2</t>
   </si>
   <si>
+    <t>COMP-037-3</t>
+  </si>
+  <si>
     <t>COMP-038-1</t>
   </si>
   <si>
@@ -505,9 +532,6 @@
     <t>COMP-039-2</t>
   </si>
   <si>
-    <t>COMP-039-3</t>
-  </si>
-  <si>
     <t>COMP-040-1</t>
   </si>
   <si>
@@ -538,6 +562,9 @@
     <t>COMP-042-3</t>
   </si>
   <si>
+    <t>COMP-042-4</t>
+  </si>
+  <si>
     <t>COMP-043-1</t>
   </si>
   <si>
@@ -568,6 +595,12 @@
     <t>COMP-046-2</t>
   </si>
   <si>
+    <t>COMP-046-3</t>
+  </si>
+  <si>
+    <t>COMP-046-4</t>
+  </si>
+  <si>
     <t>COMP-047-1</t>
   </si>
   <si>
@@ -577,6 +610,9 @@
     <t>COMP-047-3</t>
   </si>
   <si>
+    <t>COMP-047-4</t>
+  </si>
+  <si>
     <t>COMP-048-1</t>
   </si>
   <si>
@@ -586,30 +622,18 @@
     <t>COMP-048-3</t>
   </si>
   <si>
-    <t>COMP-048-4</t>
-  </si>
-  <si>
     <t>COMP-049-1</t>
   </si>
   <si>
     <t>COMP-049-2</t>
   </si>
   <si>
-    <t>COMP-049-3</t>
-  </si>
-  <si>
-    <t>COMP-049-4</t>
-  </si>
-  <si>
     <t>COMP-050-1</t>
   </si>
   <si>
     <t>COMP-050-2</t>
   </si>
   <si>
-    <t>COMP-050-3</t>
-  </si>
-  <si>
     <t>MOTOR Component 1</t>
   </si>
   <si>
@@ -622,64 +646,64 @@
     <t>MILL Component 2</t>
   </si>
   <si>
+    <t>MOTOR Component 3</t>
+  </si>
+  <si>
+    <t>MOTOR Component 4</t>
+  </si>
+  <si>
+    <t>PUMP Component 1</t>
+  </si>
+  <si>
+    <t>PUMP Component 2</t>
+  </si>
+  <si>
+    <t>UG_CONVEYOR Component 1</t>
+  </si>
+  <si>
+    <t>UG_CONVEYOR Component 2</t>
+  </si>
+  <si>
+    <t>FAN Component 1</t>
+  </si>
+  <si>
+    <t>FAN Component 2</t>
+  </si>
+  <si>
+    <t>FAN Component 3</t>
+  </si>
+  <si>
+    <t>FAN Component 4</t>
+  </si>
+  <si>
+    <t>UG_CONVEYOR Component 3</t>
+  </si>
+  <si>
+    <t>UG_CONVEYOR Component 4</t>
+  </si>
+  <si>
+    <t>HOIST Component 1</t>
+  </si>
+  <si>
+    <t>HOIST Component 2</t>
+  </si>
+  <si>
     <t>MILL Component 3</t>
   </si>
   <si>
+    <t>PUMP Component 3</t>
+  </si>
+  <si>
+    <t>PUMP Component 4</t>
+  </si>
+  <si>
+    <t>HOIST Component 3</t>
+  </si>
+  <si>
+    <t>HOIST Component 4</t>
+  </si>
+  <si>
     <t>MILL Component 4</t>
-  </si>
-  <si>
-    <t>MOTOR Component 3</t>
-  </si>
-  <si>
-    <t>PUMP Component 1</t>
-  </si>
-  <si>
-    <t>PUMP Component 2</t>
-  </si>
-  <si>
-    <t>UG_CONVEYOR Component 1</t>
-  </si>
-  <si>
-    <t>UG_CONVEYOR Component 2</t>
-  </si>
-  <si>
-    <t>FAN Component 1</t>
-  </si>
-  <si>
-    <t>FAN Component 2</t>
-  </si>
-  <si>
-    <t>FAN Component 3</t>
-  </si>
-  <si>
-    <t>HOIST Component 1</t>
-  </si>
-  <si>
-    <t>HOIST Component 2</t>
-  </si>
-  <si>
-    <t>UG_CONVEYOR Component 3</t>
-  </si>
-  <si>
-    <t>UG_CONVEYOR Component 4</t>
-  </si>
-  <si>
-    <t>HOIST Component 3</t>
-  </si>
-  <si>
-    <t>MOTOR Component 4</t>
-  </si>
-  <si>
-    <t>PUMP Component 3</t>
-  </si>
-  <si>
-    <t>PUMP Component 4</t>
-  </si>
-  <si>
-    <t>FAN Component 4</t>
-  </si>
-  <si>
-    <t>HOIST Component 4</t>
   </si>
   <si>
     <t>Wear</t>
@@ -1046,7 +1070,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E144"/>
+  <dimension ref="A1:E152"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1077,10 +1101,10 @@
         <v>55</v>
       </c>
       <c r="C2" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="D2" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -1094,10 +1118,10 @@
         <v>56</v>
       </c>
       <c r="C3" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="D3" t="s">
-        <v>223</v>
+        <v>231</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -1111,13 +1135,13 @@
         <v>57</v>
       </c>
       <c r="C4" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="D4" t="s">
-        <v>223</v>
+        <v>232</v>
       </c>
       <c r="E4">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1128,47 +1152,47 @@
         <v>58</v>
       </c>
       <c r="C5" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="D5" t="s">
-        <v>222</v>
+        <v>231</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B6" t="s">
         <v>59</v>
       </c>
       <c r="C6" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="D6" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="E6">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
         <v>60</v>
       </c>
       <c r="C7" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="D7" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1179,13 +1203,13 @@
         <v>61</v>
       </c>
       <c r="C8" t="s">
-        <v>198</v>
+        <v>210</v>
       </c>
       <c r="D8" t="s">
-        <v>222</v>
+        <v>232</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1196,30 +1220,30 @@
         <v>62</v>
       </c>
       <c r="C9" t="s">
-        <v>199</v>
+        <v>211</v>
       </c>
       <c r="D9" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B10" t="s">
         <v>63</v>
       </c>
       <c r="C10" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="D10" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="E10">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1230,30 +1254,30 @@
         <v>64</v>
       </c>
       <c r="C11" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="D11" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="E11">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B12" t="s">
         <v>65</v>
       </c>
       <c r="C12" t="s">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="D12" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1264,30 +1288,30 @@
         <v>66</v>
       </c>
       <c r="C13" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="D13" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="E13">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B14" t="s">
         <v>67</v>
       </c>
       <c r="C14" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="D14" t="s">
-        <v>223</v>
+        <v>231</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1298,30 +1322,30 @@
         <v>68</v>
       </c>
       <c r="C15" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="D15" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="E15">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B16" t="s">
         <v>69</v>
       </c>
       <c r="C16" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="D16" t="s">
-        <v>222</v>
+        <v>232</v>
       </c>
       <c r="E16">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1332,13 +1356,13 @@
         <v>70</v>
       </c>
       <c r="C17" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="D17" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="E17">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1349,13 +1373,13 @@
         <v>71</v>
       </c>
       <c r="C18" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="D18" t="s">
-        <v>222</v>
+        <v>231</v>
       </c>
       <c r="E18">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1366,13 +1390,13 @@
         <v>72</v>
       </c>
       <c r="C19" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="D19" t="s">
-        <v>222</v>
+        <v>231</v>
       </c>
       <c r="E19">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1383,13 +1407,13 @@
         <v>73</v>
       </c>
       <c r="C20" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="D20" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="E20">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1400,13 +1424,13 @@
         <v>74</v>
       </c>
       <c r="C21" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="D21" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1417,13 +1441,13 @@
         <v>75</v>
       </c>
       <c r="C22" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="D22" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="E22">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1434,44 +1458,44 @@
         <v>76</v>
       </c>
       <c r="C23" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="D23" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="E23">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B24" t="s">
         <v>77</v>
       </c>
       <c r="C24" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="D24" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="E24">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B25" t="s">
         <v>78</v>
       </c>
       <c r="C25" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="D25" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="E25">
         <v>2</v>
@@ -1479,36 +1503,36 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B26" t="s">
         <v>79</v>
       </c>
       <c r="C26" t="s">
-        <v>200</v>
+        <v>222</v>
       </c>
       <c r="D26" t="s">
-        <v>223</v>
+        <v>232</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B27" t="s">
         <v>80</v>
       </c>
       <c r="C27" t="s">
-        <v>201</v>
+        <v>223</v>
       </c>
       <c r="D27" t="s">
-        <v>223</v>
+        <v>232</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1519,13 +1543,13 @@
         <v>81</v>
       </c>
       <c r="C28" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="D28" t="s">
-        <v>222</v>
+        <v>232</v>
       </c>
       <c r="E28">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1536,30 +1560,30 @@
         <v>82</v>
       </c>
       <c r="C29" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="D29" t="s">
-        <v>223</v>
+        <v>231</v>
       </c>
       <c r="E29">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B30" t="s">
         <v>83</v>
       </c>
       <c r="C30" t="s">
-        <v>205</v>
+        <v>224</v>
       </c>
       <c r="D30" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="E30">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1570,44 +1594,44 @@
         <v>84</v>
       </c>
       <c r="C31" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="D31" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="E31">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B32" t="s">
         <v>85</v>
       </c>
       <c r="C32" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="D32" t="s">
-        <v>223</v>
+        <v>232</v>
       </c>
       <c r="E32">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B33" t="s">
         <v>86</v>
       </c>
       <c r="C33" t="s">
-        <v>210</v>
+        <v>225</v>
       </c>
       <c r="D33" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="E33">
         <v>1</v>
@@ -1615,67 +1639,67 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B34" t="s">
         <v>87</v>
       </c>
       <c r="C34" t="s">
-        <v>211</v>
+        <v>226</v>
       </c>
       <c r="D34" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="E34">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B35" t="s">
         <v>88</v>
       </c>
       <c r="C35" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="D35" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="E35">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B36" t="s">
         <v>89</v>
       </c>
       <c r="C36" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
       <c r="D36" t="s">
-        <v>222</v>
+        <v>231</v>
       </c>
       <c r="E36">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B37" t="s">
         <v>90</v>
       </c>
       <c r="C37" t="s">
-        <v>207</v>
+        <v>218</v>
       </c>
       <c r="D37" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="E37">
         <v>5</v>
@@ -1683,36 +1707,36 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B38" t="s">
         <v>91</v>
       </c>
       <c r="C38" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="D38" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="E38">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B39" t="s">
         <v>92</v>
       </c>
       <c r="C39" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D39" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="E39">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1723,10 +1747,10 @@
         <v>93</v>
       </c>
       <c r="C40" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D40" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="E40">
         <v>3</v>
@@ -1734,36 +1758,36 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B41" t="s">
         <v>94</v>
       </c>
       <c r="C41" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="D41" t="s">
-        <v>222</v>
+        <v>232</v>
       </c>
       <c r="E41">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B42" t="s">
         <v>95</v>
       </c>
       <c r="C42" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="D42" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="E42">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1774,10 +1798,10 @@
         <v>96</v>
       </c>
       <c r="C43" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="D43" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="E43">
         <v>3</v>
@@ -1785,186 +1809,186 @@
     </row>
     <row r="44" spans="1:5">
       <c r="A44" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B44" t="s">
         <v>97</v>
       </c>
       <c r="C44" t="s">
-        <v>198</v>
+        <v>223</v>
       </c>
       <c r="D44" t="s">
-        <v>223</v>
+        <v>232</v>
       </c>
       <c r="E44">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B45" t="s">
         <v>98</v>
       </c>
       <c r="C45" t="s">
-        <v>199</v>
+        <v>227</v>
       </c>
       <c r="D45" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="E45">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B46" t="s">
         <v>99</v>
       </c>
       <c r="C46" t="s">
-        <v>200</v>
+        <v>228</v>
       </c>
       <c r="D46" t="s">
-        <v>223</v>
+        <v>231</v>
       </c>
       <c r="E46">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B47" t="s">
         <v>100</v>
       </c>
       <c r="C47" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="D47" t="s">
-        <v>223</v>
+        <v>231</v>
       </c>
       <c r="E47">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B48" t="s">
         <v>101</v>
       </c>
       <c r="C48" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="D48" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="E48">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B49" t="s">
         <v>102</v>
       </c>
       <c r="C49" t="s">
-        <v>199</v>
+        <v>210</v>
       </c>
       <c r="D49" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="E49">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B50" t="s">
         <v>103</v>
       </c>
       <c r="C50" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="D50" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="E50">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B51" t="s">
         <v>104</v>
       </c>
       <c r="C51" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="D51" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="E51">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B52" t="s">
         <v>105</v>
       </c>
       <c r="C52" t="s">
-        <v>198</v>
+        <v>224</v>
       </c>
       <c r="D52" t="s">
-        <v>222</v>
+        <v>231</v>
       </c>
       <c r="E52">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="53" spans="1:5">
       <c r="A53" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B53" t="s">
         <v>106</v>
       </c>
       <c r="C53" t="s">
-        <v>199</v>
+        <v>229</v>
       </c>
       <c r="D53" t="s">
-        <v>223</v>
+        <v>231</v>
       </c>
       <c r="E53">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="54" spans="1:5">
       <c r="A54" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B54" t="s">
         <v>107</v>
       </c>
       <c r="C54" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D54" t="s">
-        <v>223</v>
+        <v>231</v>
       </c>
       <c r="E54">
         <v>2</v>
@@ -1972,33 +1996,33 @@
     </row>
     <row r="55" spans="1:5">
       <c r="A55" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B55" t="s">
         <v>108</v>
       </c>
       <c r="C55" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D55" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="E55">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="56" spans="1:5">
       <c r="A56" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B56" t="s">
         <v>109</v>
       </c>
       <c r="C56" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="D56" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="E56">
         <v>4</v>
@@ -2006,126 +2030,126 @@
     </row>
     <row r="57" spans="1:5">
       <c r="A57" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B57" t="s">
         <v>110</v>
       </c>
       <c r="C57" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="D57" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="E57">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:5">
       <c r="A58" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B58" t="s">
         <v>111</v>
       </c>
       <c r="C58" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="D58" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="E58">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="59" spans="1:5">
       <c r="A59" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B59" t="s">
         <v>112</v>
       </c>
       <c r="C59" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="D59" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="E59">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:5">
       <c r="A60" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B60" t="s">
         <v>113</v>
       </c>
       <c r="C60" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="D60" t="s">
-        <v>222</v>
+        <v>231</v>
       </c>
       <c r="E60">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:5">
       <c r="A61" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B61" t="s">
         <v>114</v>
       </c>
       <c r="C61" t="s">
-        <v>200</v>
+        <v>211</v>
       </c>
       <c r="D61" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="E61">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="62" spans="1:5">
       <c r="A62" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B62" t="s">
         <v>115</v>
       </c>
       <c r="C62" t="s">
-        <v>201</v>
+        <v>212</v>
       </c>
       <c r="D62" t="s">
-        <v>223</v>
+        <v>232</v>
       </c>
       <c r="E62">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:5">
       <c r="A63" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B63" t="s">
         <v>116</v>
       </c>
       <c r="C63" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="D63" t="s">
-        <v>222</v>
+        <v>232</v>
       </c>
       <c r="E63">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="64" spans="1:5">
       <c r="A64" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B64" t="s">
         <v>117</v>
@@ -2134,41 +2158,41 @@
         <v>208</v>
       </c>
       <c r="D64" t="s">
-        <v>222</v>
+        <v>232</v>
       </c>
       <c r="E64">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:5">
       <c r="A65" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B65" t="s">
         <v>118</v>
       </c>
       <c r="C65" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="D65" t="s">
-        <v>222</v>
+        <v>232</v>
       </c>
       <c r="E65">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="66" spans="1:5">
       <c r="A66" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B66" t="s">
         <v>119</v>
       </c>
       <c r="C66" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="D66" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="E66">
         <v>5</v>
@@ -2176,67 +2200,67 @@
     </row>
     <row r="67" spans="1:5">
       <c r="A67" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B67" t="s">
         <v>120</v>
       </c>
       <c r="C67" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="D67" t="s">
-        <v>222</v>
+        <v>231</v>
       </c>
       <c r="E67">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="68" spans="1:5">
       <c r="A68" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B68" t="s">
         <v>121</v>
       </c>
       <c r="C68" t="s">
-        <v>200</v>
+        <v>224</v>
       </c>
       <c r="D68" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="E68">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="69" spans="1:5">
       <c r="A69" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B69" t="s">
         <v>122</v>
       </c>
       <c r="C69" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="D69" t="s">
-        <v>222</v>
+        <v>231</v>
       </c>
       <c r="E69">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="70" spans="1:5">
       <c r="A70" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B70" t="s">
         <v>123</v>
       </c>
       <c r="C70" t="s">
-        <v>202</v>
+        <v>215</v>
       </c>
       <c r="D70" t="s">
-        <v>223</v>
+        <v>231</v>
       </c>
       <c r="E70">
         <v>4</v>
@@ -2244,84 +2268,84 @@
     </row>
     <row r="71" spans="1:5">
       <c r="A71" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B71" t="s">
         <v>124</v>
       </c>
       <c r="C71" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="D71" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="E71">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="72" spans="1:5">
       <c r="A72" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B72" t="s">
         <v>125</v>
       </c>
       <c r="C72" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="D72" t="s">
-        <v>223</v>
+        <v>232</v>
       </c>
       <c r="E72">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:5">
       <c r="A73" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B73" t="s">
         <v>126</v>
       </c>
       <c r="C73" t="s">
-        <v>211</v>
+        <v>225</v>
       </c>
       <c r="D73" t="s">
-        <v>223</v>
+        <v>232</v>
       </c>
       <c r="E73">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:5">
       <c r="A74" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B74" t="s">
         <v>127</v>
       </c>
       <c r="C74" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="D74" t="s">
-        <v>222</v>
+        <v>232</v>
       </c>
       <c r="E74">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:5">
       <c r="A75" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B75" t="s">
         <v>128</v>
       </c>
       <c r="C75" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="D75" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="E75">
         <v>4</v>
@@ -2329,50 +2353,50 @@
     </row>
     <row r="76" spans="1:5">
       <c r="A76" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B76" t="s">
         <v>129</v>
       </c>
       <c r="C76" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="D76" t="s">
-        <v>223</v>
+        <v>231</v>
       </c>
       <c r="E76">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:5">
       <c r="A77" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B77" t="s">
         <v>130</v>
       </c>
       <c r="C77" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D77" t="s">
-        <v>223</v>
+        <v>231</v>
       </c>
       <c r="E77">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="78" spans="1:5">
       <c r="A78" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B78" t="s">
         <v>131</v>
       </c>
       <c r="C78" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="D78" t="s">
-        <v>223</v>
+        <v>231</v>
       </c>
       <c r="E78">
         <v>2</v>
@@ -2380,33 +2404,33 @@
     </row>
     <row r="79" spans="1:5">
       <c r="A79" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B79" t="s">
         <v>132</v>
       </c>
       <c r="C79" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="D79" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="E79">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:5">
       <c r="A80" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B80" t="s">
         <v>133</v>
       </c>
       <c r="C80" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="D80" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="E80">
         <v>4</v>
@@ -2414,16 +2438,16 @@
     </row>
     <row r="81" spans="1:5">
       <c r="A81" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B81" t="s">
         <v>134</v>
       </c>
       <c r="C81" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="D81" t="s">
-        <v>223</v>
+        <v>231</v>
       </c>
       <c r="E81">
         <v>1</v>
@@ -2431,271 +2455,271 @@
     </row>
     <row r="82" spans="1:5">
       <c r="A82" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B82" t="s">
         <v>135</v>
       </c>
       <c r="C82" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D82" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="E82">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="83" spans="1:5">
       <c r="A83" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B83" t="s">
         <v>136</v>
       </c>
       <c r="C83" t="s">
-        <v>213</v>
+        <v>225</v>
       </c>
       <c r="D83" t="s">
-        <v>222</v>
+        <v>231</v>
       </c>
       <c r="E83">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:5">
       <c r="A84" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B84" t="s">
         <v>137</v>
       </c>
       <c r="C84" t="s">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="D84" t="s">
-        <v>222</v>
+        <v>232</v>
       </c>
       <c r="E84">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="85" spans="1:5">
       <c r="A85" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B85" t="s">
         <v>138</v>
       </c>
       <c r="C85" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="D85" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="E85">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="86" spans="1:5">
       <c r="A86" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B86" t="s">
         <v>139</v>
       </c>
       <c r="C86" t="s">
-        <v>205</v>
+        <v>217</v>
       </c>
       <c r="D86" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="E86">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="87" spans="1:5">
       <c r="A87" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B87" t="s">
         <v>140</v>
       </c>
       <c r="C87" t="s">
-        <v>206</v>
+        <v>218</v>
       </c>
       <c r="D87" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="E87">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="88" spans="1:5">
       <c r="A88" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B88" t="s">
         <v>141</v>
       </c>
       <c r="C88" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="D88" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="E88">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:5">
       <c r="A89" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B89" t="s">
         <v>142</v>
       </c>
       <c r="C89" t="s">
-        <v>209</v>
+        <v>223</v>
       </c>
       <c r="D89" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="E89">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90" spans="1:5">
       <c r="A90" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B90" t="s">
         <v>143</v>
       </c>
       <c r="C90" t="s">
-        <v>210</v>
+        <v>227</v>
       </c>
       <c r="D90" t="s">
-        <v>223</v>
+        <v>232</v>
       </c>
       <c r="E90">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="91" spans="1:5">
       <c r="A91" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B91" t="s">
         <v>144</v>
       </c>
       <c r="C91" t="s">
-        <v>212</v>
+        <v>228</v>
       </c>
       <c r="D91" t="s">
-        <v>223</v>
+        <v>232</v>
       </c>
       <c r="E91">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:5">
       <c r="A92" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B92" t="s">
         <v>145</v>
       </c>
       <c r="C92" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D92" t="s">
-        <v>222</v>
+        <v>231</v>
       </c>
       <c r="E92">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:5">
       <c r="A93" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B93" t="s">
         <v>146</v>
       </c>
       <c r="C93" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D93" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="E93">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="94" spans="1:5">
       <c r="A94" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B94" t="s">
         <v>147</v>
       </c>
       <c r="C94" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="D94" t="s">
-        <v>223</v>
+        <v>232</v>
       </c>
       <c r="E94">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="95" spans="1:5">
       <c r="A95" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B95" t="s">
         <v>148</v>
       </c>
       <c r="C95" t="s">
-        <v>200</v>
+        <v>226</v>
       </c>
       <c r="D95" t="s">
-        <v>223</v>
+        <v>232</v>
       </c>
       <c r="E95">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="96" spans="1:5">
       <c r="A96" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B96" t="s">
         <v>149</v>
       </c>
       <c r="C96" t="s">
-        <v>201</v>
+        <v>216</v>
       </c>
       <c r="D96" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="E96">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:5">
       <c r="A97" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B97" t="s">
         <v>150</v>
       </c>
       <c r="C97" t="s">
-        <v>202</v>
+        <v>217</v>
       </c>
       <c r="D97" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="E97">
         <v>1</v>
@@ -2703,67 +2727,67 @@
     </row>
     <row r="98" spans="1:5">
       <c r="A98" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B98" t="s">
         <v>151</v>
       </c>
       <c r="C98" t="s">
-        <v>203</v>
+        <v>218</v>
       </c>
       <c r="D98" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="E98">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="99" spans="1:5">
       <c r="A99" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B99" t="s">
         <v>152</v>
       </c>
       <c r="C99" t="s">
-        <v>207</v>
+        <v>219</v>
       </c>
       <c r="D99" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="E99">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="100" spans="1:5">
       <c r="A100" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B100" t="s">
         <v>153</v>
       </c>
       <c r="C100" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="D100" t="s">
-        <v>222</v>
+        <v>231</v>
       </c>
       <c r="E100">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="101" spans="1:5">
       <c r="A101" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B101" t="s">
         <v>154</v>
       </c>
       <c r="C101" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="D101" t="s">
-        <v>222</v>
+        <v>231</v>
       </c>
       <c r="E101">
         <v>2</v>
@@ -2771,118 +2795,118 @@
     </row>
     <row r="102" spans="1:5">
       <c r="A102" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B102" t="s">
         <v>155</v>
       </c>
       <c r="C102" t="s">
-        <v>198</v>
+        <v>227</v>
       </c>
       <c r="D102" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="E102">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103" spans="1:5">
       <c r="A103" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B103" t="s">
         <v>156</v>
       </c>
       <c r="C103" t="s">
-        <v>199</v>
+        <v>208</v>
       </c>
       <c r="D103" t="s">
-        <v>223</v>
+        <v>232</v>
       </c>
       <c r="E103">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104" spans="1:5">
       <c r="A104" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B104" t="s">
         <v>157</v>
       </c>
       <c r="C104" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="D104" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="E104">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="105" spans="1:5">
       <c r="A105" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B105" t="s">
         <v>158</v>
       </c>
       <c r="C105" t="s">
-        <v>213</v>
+        <v>224</v>
       </c>
       <c r="D105" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="E105">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="106" spans="1:5">
       <c r="A106" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B106" t="s">
         <v>159</v>
       </c>
       <c r="C106" t="s">
-        <v>200</v>
+        <v>214</v>
       </c>
       <c r="D106" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="E106">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="107" spans="1:5">
       <c r="A107" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B107" t="s">
         <v>160</v>
       </c>
       <c r="C107" t="s">
-        <v>201</v>
+        <v>215</v>
       </c>
       <c r="D107" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="E107">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="108" spans="1:5">
       <c r="A108" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B108" t="s">
         <v>161</v>
       </c>
       <c r="C108" t="s">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="D108" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="E108">
         <v>5</v>
@@ -2890,50 +2914,50 @@
     </row>
     <row r="109" spans="1:5">
       <c r="A109" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B109" t="s">
         <v>162</v>
       </c>
       <c r="C109" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="D109" t="s">
-        <v>222</v>
+        <v>231</v>
       </c>
       <c r="E109">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110" spans="1:5">
       <c r="A110" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B110" t="s">
         <v>163</v>
       </c>
       <c r="C110" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="D110" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="E110">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="111" spans="1:5">
       <c r="A111" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B111" t="s">
         <v>164</v>
       </c>
       <c r="C111" t="s">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="D111" t="s">
-        <v>222</v>
+        <v>231</v>
       </c>
       <c r="E111">
         <v>4</v>
@@ -2941,33 +2965,33 @@
     </row>
     <row r="112" spans="1:5">
       <c r="A112" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B112" t="s">
         <v>165</v>
       </c>
       <c r="C112" t="s">
-        <v>201</v>
+        <v>222</v>
       </c>
       <c r="D112" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="E112">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="113" spans="1:5">
       <c r="A113" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B113" t="s">
         <v>166</v>
       </c>
       <c r="C113" t="s">
-        <v>202</v>
+        <v>223</v>
       </c>
       <c r="D113" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="E113">
         <v>4</v>
@@ -2975,16 +2999,16 @@
     </row>
     <row r="114" spans="1:5">
       <c r="A114" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B114" t="s">
         <v>167</v>
       </c>
       <c r="C114" t="s">
-        <v>203</v>
+        <v>227</v>
       </c>
       <c r="D114" t="s">
-        <v>222</v>
+        <v>231</v>
       </c>
       <c r="E114">
         <v>5</v>
@@ -2992,407 +3016,407 @@
     </row>
     <row r="115" spans="1:5">
       <c r="A115" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B115" t="s">
         <v>168</v>
       </c>
       <c r="C115" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D115" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="E115">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="116" spans="1:5">
       <c r="A116" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B116" t="s">
         <v>169</v>
       </c>
       <c r="C116" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D116" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="E116">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117" spans="1:5">
       <c r="A117" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B117" t="s">
         <v>170</v>
       </c>
       <c r="C117" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="D117" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="E117">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="118" spans="1:5">
       <c r="A118" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B118" t="s">
         <v>171</v>
       </c>
       <c r="C118" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="D118" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="E118">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="119" spans="1:5">
       <c r="A119" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B119" t="s">
         <v>172</v>
       </c>
       <c r="C119" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D119" t="s">
-        <v>223</v>
+        <v>232</v>
       </c>
       <c r="E119">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="120" spans="1:5">
       <c r="A120" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B120" t="s">
         <v>173</v>
       </c>
       <c r="C120" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="D120" t="s">
-        <v>222</v>
+        <v>232</v>
       </c>
       <c r="E120">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121" spans="1:5">
       <c r="A121" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B121" t="s">
         <v>174</v>
       </c>
       <c r="C121" t="s">
-        <v>198</v>
+        <v>224</v>
       </c>
       <c r="D121" t="s">
-        <v>222</v>
+        <v>231</v>
       </c>
       <c r="E121">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="122" spans="1:5">
       <c r="A122" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B122" t="s">
         <v>175</v>
       </c>
       <c r="C122" t="s">
-        <v>199</v>
+        <v>229</v>
       </c>
       <c r="D122" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="E122">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="123" spans="1:5">
       <c r="A123" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B123" t="s">
         <v>176</v>
       </c>
       <c r="C123" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="D123" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="E123">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124" spans="1:5">
       <c r="A124" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B124" t="s">
         <v>177</v>
       </c>
       <c r="C124" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="D124" t="s">
-        <v>222</v>
+        <v>231</v>
       </c>
       <c r="E124">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125" spans="1:5">
       <c r="A125" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B125" t="s">
         <v>178</v>
       </c>
       <c r="C125" t="s">
-        <v>211</v>
+        <v>220</v>
       </c>
       <c r="D125" t="s">
-        <v>222</v>
+        <v>232</v>
       </c>
       <c r="E125">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="126" spans="1:5">
       <c r="A126" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B126" t="s">
         <v>179</v>
       </c>
       <c r="C126" t="s">
-        <v>198</v>
+        <v>212</v>
       </c>
       <c r="D126" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="E126">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="127" spans="1:5">
       <c r="A127" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B127" t="s">
         <v>180</v>
       </c>
       <c r="C127" t="s">
-        <v>199</v>
+        <v>213</v>
       </c>
       <c r="D127" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="E127">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="128" spans="1:5">
       <c r="A128" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B128" t="s">
         <v>181</v>
       </c>
       <c r="C128" t="s">
-        <v>204</v>
+        <v>225</v>
       </c>
       <c r="D128" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="E128">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="129" spans="1:5">
       <c r="A129" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B129" t="s">
         <v>182</v>
       </c>
       <c r="C129" t="s">
-        <v>198</v>
+        <v>226</v>
       </c>
       <c r="D129" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="E129">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="130" spans="1:5">
       <c r="A130" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B130" t="s">
         <v>183</v>
       </c>
       <c r="C130" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="D130" t="s">
-        <v>223</v>
+        <v>232</v>
       </c>
       <c r="E130">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="131" spans="1:5">
       <c r="A131" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B131" t="s">
         <v>184</v>
       </c>
       <c r="C131" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="D131" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="E131">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132" spans="1:5">
       <c r="A132" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B132" t="s">
         <v>185</v>
       </c>
       <c r="C132" t="s">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="D132" t="s">
-        <v>223</v>
+        <v>231</v>
       </c>
       <c r="E132">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="133" spans="1:5">
       <c r="A133" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B133" t="s">
         <v>186</v>
       </c>
       <c r="C133" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D133" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="E133">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="134" spans="1:5">
       <c r="A134" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B134" t="s">
         <v>187</v>
       </c>
       <c r="C134" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="D134" t="s">
-        <v>223</v>
+        <v>232</v>
       </c>
       <c r="E134">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135" spans="1:5">
       <c r="A135" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B135" t="s">
         <v>188</v>
       </c>
       <c r="C135" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="D135" t="s">
-        <v>222</v>
+        <v>232</v>
       </c>
       <c r="E135">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="136" spans="1:5">
       <c r="A136" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B136" t="s">
         <v>189</v>
       </c>
       <c r="C136" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="D136" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="E136">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="137" spans="1:5">
       <c r="A137" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B137" t="s">
         <v>190</v>
       </c>
       <c r="C137" t="s">
-        <v>221</v>
+        <v>210</v>
       </c>
       <c r="D137" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="E137">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="138" spans="1:5">
       <c r="A138" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B138" t="s">
         <v>191</v>
       </c>
       <c r="C138" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="D138" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="E138">
         <v>3</v>
@@ -3400,50 +3424,50 @@
     </row>
     <row r="139" spans="1:5">
       <c r="A139" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B139" t="s">
         <v>192</v>
       </c>
       <c r="C139" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="D139" t="s">
-        <v>223</v>
+        <v>231</v>
       </c>
       <c r="E139">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="140" spans="1:5">
       <c r="A140" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B140" t="s">
         <v>193</v>
       </c>
       <c r="C140" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D140" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="E140">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="141" spans="1:5">
       <c r="A141" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B141" t="s">
         <v>194</v>
       </c>
       <c r="C141" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="D141" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="E141">
         <v>5</v>
@@ -3451,7 +3475,7 @@
     </row>
     <row r="142" spans="1:5">
       <c r="A142" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B142" t="s">
         <v>195</v>
@@ -3460,15 +3484,15 @@
         <v>212</v>
       </c>
       <c r="D142" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="E142">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="143" spans="1:5">
       <c r="A143" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B143" t="s">
         <v>196</v>
@@ -3477,26 +3501,162 @@
         <v>213</v>
       </c>
       <c r="D143" t="s">
-        <v>222</v>
+        <v>232</v>
       </c>
       <c r="E143">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="144" spans="1:5">
       <c r="A144" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B144" t="s">
         <v>197</v>
       </c>
       <c r="C144" t="s">
+        <v>225</v>
+      </c>
+      <c r="D144" t="s">
+        <v>230</v>
+      </c>
+      <c r="E144">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5">
+      <c r="A145" t="s">
+        <v>51</v>
+      </c>
+      <c r="B145" t="s">
+        <v>198</v>
+      </c>
+      <c r="C145" t="s">
+        <v>226</v>
+      </c>
+      <c r="D145" t="s">
+        <v>231</v>
+      </c>
+      <c r="E145">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5">
+      <c r="A146" t="s">
+        <v>52</v>
+      </c>
+      <c r="B146" t="s">
+        <v>199</v>
+      </c>
+      <c r="C146" t="s">
+        <v>222</v>
+      </c>
+      <c r="D146" t="s">
+        <v>230</v>
+      </c>
+      <c r="E146">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5">
+      <c r="A147" t="s">
+        <v>52</v>
+      </c>
+      <c r="B147" t="s">
+        <v>200</v>
+      </c>
+      <c r="C147" t="s">
+        <v>223</v>
+      </c>
+      <c r="D147" t="s">
+        <v>232</v>
+      </c>
+      <c r="E147">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5">
+      <c r="A148" t="s">
+        <v>52</v>
+      </c>
+      <c r="B148" t="s">
+        <v>201</v>
+      </c>
+      <c r="C148" t="s">
+        <v>227</v>
+      </c>
+      <c r="D148" t="s">
+        <v>230</v>
+      </c>
+      <c r="E148">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5">
+      <c r="A149" t="s">
+        <v>53</v>
+      </c>
+      <c r="B149" t="s">
+        <v>202</v>
+      </c>
+      <c r="C149" t="s">
         <v>216</v>
       </c>
-      <c r="D144" t="s">
+      <c r="D149" t="s">
+        <v>230</v>
+      </c>
+      <c r="E149">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5">
+      <c r="A150" t="s">
+        <v>53</v>
+      </c>
+      <c r="B150" t="s">
+        <v>203</v>
+      </c>
+      <c r="C150" t="s">
+        <v>217</v>
+      </c>
+      <c r="D150" t="s">
+        <v>232</v>
+      </c>
+      <c r="E150">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5">
+      <c r="A151" t="s">
+        <v>54</v>
+      </c>
+      <c r="B151" t="s">
+        <v>204</v>
+      </c>
+      <c r="C151" t="s">
+        <v>222</v>
+      </c>
+      <c r="D151" t="s">
+        <v>232</v>
+      </c>
+      <c r="E151">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5">
+      <c r="A152" t="s">
+        <v>54</v>
+      </c>
+      <c r="B152" t="s">
+        <v>205</v>
+      </c>
+      <c r="C152" t="s">
         <v>223</v>
       </c>
-      <c r="E144">
+      <c r="D152" t="s">
+        <v>231</v>
+      </c>
+      <c r="E152">
         <v>2</v>
       </c>
     </row>
